--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/test-data-tricot/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB567E8-52BF-F943-AD09-2665C650DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4EB2D6-17F0-6A4C-BF3A-DCB9C27AD4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="30720" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="roles_options" sheetId="6" r:id="rId3"/>
     <sheet name="funders" sheetId="3" r:id="rId4"/>
     <sheet name="communities" sheetId="4" r:id="rId5"/>
-    <sheet name="dates" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">authors!$A$1:$J$105</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="385">
   <si>
     <t>key</t>
   </si>
@@ -66,9 +65,6 @@
     <t>subjects</t>
   </si>
   <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
     <t>Zenodo</t>
   </si>
   <si>
@@ -136,18 +132,6 @@
   </si>
   <si>
     <t>community_name</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>accepted</t>
-  </si>
-  <si>
-    <t>submitted</t>
   </si>
   <si>
     <t>https://ror.org/04zbn7k04</t>
@@ -1632,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1640,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1648,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1656,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1664,7 +1648,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1672,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1680,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1696,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1704,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1704,7 @@
   <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J105"/>
+      <selection activeCell="J2" sqref="J2:J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1736,54 +1720,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1791,1963 +1775,1963 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C22" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B25" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C43" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C54" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B60" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C67" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E71" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B73" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C73" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B74" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C74" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D75" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C76" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C79" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D79" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B81" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E82" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D83" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C84" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D84" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E84" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D88" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E98" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E99" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E100" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E103" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D104" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E104" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3775,107 +3759,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3904,69 +3888,69 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D5">
         <v>81260859</v>
@@ -3998,60 +3982,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/test-data-tricot/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4EB2D6-17F0-6A4C-BF3A-DCB9C27AD4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB3C2E3-7CE2-404B-BE66-1E6B6A3B9CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="30720" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1175,13 +1175,13 @@
     <t>Theophilus Kwabla</t>
   </si>
   <si>
-    <t>Tricot</t>
-  </si>
-  <si>
     <t>v0.4</t>
   </si>
   <si>
     <t>agriculture; digital innovation; FAIR data; partnerships for the goals; tricot approach</t>
+  </si>
+  <si>
+    <t>The triadic comparison of technologies (tricot) is a citizen science approach for testing technology options in their target environments, which has been applied to on-farm testing of crop varieties. In the approach, participants are invited to test a anonymous set of three technologies (out of a larger number, generally between 5 to 20) randomly assigned. Between 2011 and 2025 the tricot approach was applied in more than 25 countries across Africa, Asia, Europe and Latin America with more than 30 crops.</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1624,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1643,12 +1643,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/test-data-tricot/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB3C2E3-7CE2-404B-BE66-1E6B6A3B9CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97009672-B1F3-0C4D-9CE8-EB0BFB01D70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="30720" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="30720" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
     <t>agriculture; digital innovation; FAIR data; partnerships for the goals; tricot approach</t>
   </si>
   <si>
-    <t>The triadic comparison of technologies (tricot) is a citizen science approach for testing technology options in their target environments, which has been applied to on-farm testing of crop varieties. In the approach, participants are invited to test a anonymous set of three technologies (out of a larger number, generally between 5 to 20) randomly assigned. Between 2011 and 2025 the tricot approach was applied in more than 25 countries across Africa, Asia, Europe and Latin America with more than 30 crops.</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1593,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="180" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1643,7 +1643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1703,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J105"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1807,7 +1807,7 @@
         <v>310</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1824,7 +1824,7 @@
         <v>255</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1841,7 +1841,7 @@
         <v>348</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1858,7 +1858,7 @@
         <v>55</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>87</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1898,7 +1898,7 @@
         <v>56</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1918,7 +1918,7 @@
         <v>212</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1938,7 +1938,7 @@
         <v>45</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1958,7 +1958,7 @@
         <v>45</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1978,7 +1978,7 @@
         <v>219</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1998,7 +1998,7 @@
         <v>157</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>56</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
         <v>212</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2055,7 +2055,7 @@
         <v>117</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2072,7 +2072,7 @@
         <v>55</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2092,7 +2092,7 @@
         <v>214</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2109,7 +2109,7 @@
         <v>348</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2129,7 +2129,7 @@
         <v>215</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>45</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2166,7 +2166,7 @@
         <v>97</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>45</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2203,7 +2203,7 @@
         <v>69</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2226,7 +2226,7 @@
         <v>108</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2246,7 +2246,7 @@
         <v>256</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2266,7 +2266,7 @@
         <v>97</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
         <v>97</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2300,7 +2300,7 @@
         <v>55</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2317,7 +2317,7 @@
         <v>252</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>45</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
         <v>69</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2374,7 +2374,7 @@
         <v>257</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
         <v>45</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2411,7 +2411,7 @@
         <v>258</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2431,7 +2431,7 @@
         <v>117</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2448,7 +2448,7 @@
         <v>310</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2468,7 +2468,7 @@
         <v>217</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2488,7 +2488,7 @@
         <v>87</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2511,7 +2511,7 @@
         <v>45</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2531,7 +2531,7 @@
         <v>222</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2551,7 +2551,7 @@
         <v>327</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2568,7 +2568,7 @@
         <v>108</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2588,7 +2588,7 @@
         <v>219</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2605,7 +2605,7 @@
         <v>219</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2628,7 +2628,7 @@
         <v>302</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>108</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2665,7 +2665,7 @@
         <v>108</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>220</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2702,7 +2702,7 @@
         <v>261</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2722,7 +2722,7 @@
         <v>56</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
         <v>347</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2759,7 +2759,7 @@
         <v>262</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2779,7 +2779,7 @@
         <v>108</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>55</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2819,7 +2819,7 @@
         <v>108</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2836,7 +2836,7 @@
         <v>69</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
         <v>108</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2870,7 +2870,7 @@
         <v>69</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2890,7 +2890,7 @@
         <v>157</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2910,7 +2910,7 @@
         <v>45</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2927,7 +2927,7 @@
         <v>56</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2947,7 +2947,7 @@
         <v>44</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -2967,7 +2967,7 @@
         <v>157</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -2984,7 +2984,7 @@
         <v>219</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -3004,7 +3004,7 @@
         <v>157</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -3024,7 +3024,7 @@
         <v>56</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -3044,7 +3044,7 @@
         <v>44</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -3064,7 +3064,7 @@
         <v>73</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -3084,7 +3084,7 @@
         <v>222</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -3101,7 +3101,7 @@
         <v>259</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -3121,7 +3121,7 @@
         <v>44</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3141,7 +3141,7 @@
         <v>219</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3158,7 +3158,7 @@
         <v>157</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3178,7 +3178,7 @@
         <v>157</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
         <v>117</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -3215,7 +3215,7 @@
         <v>69</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -3235,7 +3235,7 @@
         <v>55</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -3255,7 +3255,7 @@
         <v>55</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -3272,7 +3272,7 @@
         <v>262</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3292,7 +3292,7 @@
         <v>260</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3312,7 +3312,7 @@
         <v>56</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -3332,7 +3332,7 @@
         <v>69</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -3352,7 +3352,7 @@
         <v>221</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3369,7 +3369,7 @@
         <v>157</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -3389,7 +3389,7 @@
         <v>69</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -3409,7 +3409,7 @@
         <v>117</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -3429,7 +3429,7 @@
         <v>56</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -3446,7 +3446,7 @@
         <v>380</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
         <v>157</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -3483,7 +3483,7 @@
         <v>97</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -3523,7 +3523,7 @@
         <v>157</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -3543,7 +3543,7 @@
         <v>45</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -3560,7 +3560,7 @@
         <v>212</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
         <v>55</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -3597,7 +3597,7 @@
         <v>260</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -3617,7 +3617,7 @@
         <v>214</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -3634,7 +3634,7 @@
         <v>252</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
         <v>45</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -3674,7 +3674,7 @@
         <v>117</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -3694,7 +3694,7 @@
         <v>56</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -3711,7 +3711,7 @@
         <v>261</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -3731,7 +3731,7 @@
         <v>45</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
